--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345705.529694905</v>
+        <v>1343328.902747539</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>185.1679830453351</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>272.6855712847169</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.35776910596827</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>363.1573969554791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>403.8326169930574</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.1023026793897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.67418615252909</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.9585409416857</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>64.50612826256102</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>42.7157213271124</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673045</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.7076464771371</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>218.227129859624</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.32649042089668</v>
+        <v>155.0136892434276</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1454.537269016651</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C2" t="n">
-        <v>1085.57475207624</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>727.3090534694891</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>727.3090534694891</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>316.3231486798815</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>304.6588024445745</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.137109080773</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="3">
@@ -4389,37 +4389,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252739</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.339728363563</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>572.339728363563</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>572.339728363563</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>572.339728363563</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>425.4497808656527</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>257.4633161739313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544054</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>793.1323075070932</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>793.1323075070932</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.339728363563</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.3216348137587</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="C5" t="n">
-        <v>861.3216348137587</v>
+        <v>1984.631170065568</v>
       </c>
       <c r="D5" t="n">
-        <v>503.0559362070082</v>
+        <v>1626.365471458818</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>1240.577218860574</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>829.5913140709661</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,25 +4565,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137587</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,25 +4723,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4756,19 +4756,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>1381.76163186861</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>494.0456011520457</v>
+        <v>824.6074030911695</v>
       </c>
       <c r="C8" t="n">
-        <v>125.0830842116339</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D8" t="n">
-        <v>125.0830842116339</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0830842116339</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>118.1375834624305</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>106.4732372271234</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>106.4732372271234</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2327.580988662297</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2327.580988662297</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2327.580988662297</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1974.812333392183</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191979</v>
+        <v>1601.346575131103</v>
       </c>
       <c r="Y8" t="n">
-        <v>880.6454412161675</v>
+        <v>1211.207243155291</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,16 +4884,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>898.2468199959889</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C10" t="n">
-        <v>729.310637068082</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>579.1939976557462</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>431.2809040733531</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>284.3909565754427</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>116.4044918837213</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="11">
@@ -5030,49 +5030,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>219.0505596597677</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,7 +6078,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6607,10 +6607,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>526.5658826424041</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>526.5658826424041</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>35.9162744517248</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5789915191115</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392193961</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.433962646568</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.6085800303782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>7.482525529413124</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.5054897610406</v>
+        <v>24.81829093850968</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>22.81817176293617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934318.0292936303</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934318.0292936306</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934318.0292936304</v>
+        <v>934318.0292936305</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934318.0292936305</v>
+        <v>934318.0292936304</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707362</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>6897.424496707365</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707372</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-846974.2209288194</v>
+        <v>-846974.2209288196</v>
       </c>
       <c r="C6" t="n">
-        <v>267777.5626471004</v>
+        <v>267777.5626471005</v>
       </c>
       <c r="D6" t="n">
         <v>267777.5626471004</v>
       </c>
       <c r="E6" t="n">
-        <v>-131217.4361311565</v>
+        <v>-131252.1740565925</v>
       </c>
       <c r="F6" t="n">
-        <v>376268.0054933891</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="G6" t="n">
-        <v>376268.0054933891</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="H6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="I6" t="n">
-        <v>376268.0054933891</v>
+        <v>376233.2675679533</v>
       </c>
       <c r="J6" t="n">
-        <v>208662.8276834065</v>
+        <v>208628.0897579709</v>
       </c>
       <c r="K6" t="n">
-        <v>376268.005493389</v>
+        <v>376233.2675679535</v>
       </c>
       <c r="L6" t="n">
-        <v>376268.0054933893</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="M6" t="n">
-        <v>243660.7117644625</v>
+        <v>243625.9738390267</v>
       </c>
       <c r="N6" t="n">
-        <v>376268.005493389</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="O6" t="n">
-        <v>376268.0054933892</v>
+        <v>376233.2675679534</v>
       </c>
       <c r="P6" t="n">
-        <v>376268.0054933892</v>
+        <v>376233.2675679536</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996088</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>115.8505695170702</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>113.5523673713367</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89374004916057</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.77297311678268</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>7.715085779896583</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>46.91356563188748</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27828,19 +27828,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.482350672705053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>11.03572651994141</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>97.69964403854802</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46.91356563188748</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>82.74538089256785</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,10 +28065,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283061</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,10 +33737,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>348.5948060356187</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>491.0077074256848</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394707</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060476</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
